--- a/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>66</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>34</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>98</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>44</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>136</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1176</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>84</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>88</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>88</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>24</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>92</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>180</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>28</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>352</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>224</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>148</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>512</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>184</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>576</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>156</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>132</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>180</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1184</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>260</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>116</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>560</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>224</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>844</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>576</v>

--- a/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,153 +468,137 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>136</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>180</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>352</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>224</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B21" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B22" t="n">
         <v>576</v>
       </c>
     </row>
@@ -629,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,73 +643,65 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1184</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>560</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>224</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45626.99999999999</v>
-      </c>
-      <c r="B11" t="n">
         <v>576</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -703,6 +704,425 @@
       </c>
       <c r="B10" t="n">
         <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-274.489409555782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>396.067746716375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>77</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-281.2128042529649</v>
+      </c>
+      <c r="D3" t="n">
+        <v>413.267553057409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-186.6172412035</v>
+      </c>
+      <c r="D4" t="n">
+        <v>481.8538057115864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-182.6953230288297</v>
+      </c>
+      <c r="D5" t="n">
+        <v>466.4545780367071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>165</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-170.8890051239006</v>
+      </c>
+      <c r="D6" t="n">
+        <v>514.3710230808538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>183</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-174.8843750267436</v>
+      </c>
+      <c r="D7" t="n">
+        <v>517.3045967221565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>189</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-157.3855896010891</v>
+      </c>
+      <c r="D8" t="n">
+        <v>540.3502709302746</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>201</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-139.0939473023811</v>
+      </c>
+      <c r="D9" t="n">
+        <v>520.0706594768222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>207</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-162.557576454658</v>
+      </c>
+      <c r="D10" t="n">
+        <v>550.1891118956687</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-135.3668555235642</v>
+      </c>
+      <c r="D11" t="n">
+        <v>540.2855241969396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>219</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-112.9568064971525</v>
+      </c>
+      <c r="D12" t="n">
+        <v>554.2418591196105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>248</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-57.07718015950802</v>
+      </c>
+      <c r="D13" t="n">
+        <v>592.8884285934466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>254</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-69.09606649411907</v>
+      </c>
+      <c r="D14" t="n">
+        <v>606.8410252654982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>260</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-49.06836385626646</v>
+      </c>
+      <c r="D15" t="n">
+        <v>615.2922163472905</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>284</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-52.73867601724429</v>
+      </c>
+      <c r="D16" t="n">
+        <v>602.0149203809727</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>289</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-63.50987958238752</v>
+      </c>
+      <c r="D17" t="n">
+        <v>614.892595547775</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>301</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-26.85159084392301</v>
+      </c>
+      <c r="D18" t="n">
+        <v>616.1124434099165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>313</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-20.30473190515999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>667.403837429843</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.949547358030813</v>
+      </c>
+      <c r="D20" t="n">
+        <v>663.1671996149353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>331</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-9.853081831836755</v>
+      </c>
+      <c r="D21" t="n">
+        <v>675.5490765985616</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>337</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.800000077947697</v>
+      </c>
+      <c r="D22" t="n">
+        <v>665.6988776245722</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>343</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.75552979021066</v>
+      </c>
+      <c r="D23" t="n">
+        <v>699.9887418448557</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>349</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.409164462247696</v>
+      </c>
+      <c r="D24" t="n">
+        <v>659.6769184322196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>355</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27.6324397506751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>683.045356730385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>360</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.461771780183521</v>
+      </c>
+      <c r="D26" t="n">
+        <v>695.7947591981757</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>366</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.07420583872602</v>
+      </c>
+      <c r="D27" t="n">
+        <v>708.4068854598256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>372</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44.16751989812407</v>
+      </c>
+      <c r="D28" t="n">
+        <v>701.5125556508866</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSKBG4T3_po_data.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,16 +736,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -754,12 +744,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>-274.489409555782</v>
-      </c>
-      <c r="D2" t="n">
-        <v>396.067746716375</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -768,12 +752,6 @@
       <c r="B3" t="n">
         <v>77</v>
       </c>
-      <c r="C3" t="n">
-        <v>-281.2128042529649</v>
-      </c>
-      <c r="D3" t="n">
-        <v>413.267553057409</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -782,12 +760,6 @@
       <c r="B4" t="n">
         <v>148</v>
       </c>
-      <c r="C4" t="n">
-        <v>-186.6172412035</v>
-      </c>
-      <c r="D4" t="n">
-        <v>481.8538057115864</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -796,12 +768,6 @@
       <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
-        <v>-182.6953230288297</v>
-      </c>
-      <c r="D5" t="n">
-        <v>466.4545780367071</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -810,12 +776,6 @@
       <c r="B6" t="n">
         <v>165</v>
       </c>
-      <c r="C6" t="n">
-        <v>-170.8890051239006</v>
-      </c>
-      <c r="D6" t="n">
-        <v>514.3710230808538</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -824,12 +784,6 @@
       <c r="B7" t="n">
         <v>183</v>
       </c>
-      <c r="C7" t="n">
-        <v>-174.8843750267436</v>
-      </c>
-      <c r="D7" t="n">
-        <v>517.3045967221565</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -838,12 +792,6 @@
       <c r="B8" t="n">
         <v>189</v>
       </c>
-      <c r="C8" t="n">
-        <v>-157.3855896010891</v>
-      </c>
-      <c r="D8" t="n">
-        <v>540.3502709302746</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -852,12 +800,6 @@
       <c r="B9" t="n">
         <v>201</v>
       </c>
-      <c r="C9" t="n">
-        <v>-139.0939473023811</v>
-      </c>
-      <c r="D9" t="n">
-        <v>520.0706594768222</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,12 +808,6 @@
       <c r="B10" t="n">
         <v>207</v>
       </c>
-      <c r="C10" t="n">
-        <v>-162.557576454658</v>
-      </c>
-      <c r="D10" t="n">
-        <v>550.1891118956687</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -880,12 +816,6 @@
       <c r="B11" t="n">
         <v>213</v>
       </c>
-      <c r="C11" t="n">
-        <v>-135.3668555235642</v>
-      </c>
-      <c r="D11" t="n">
-        <v>540.2855241969396</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -894,12 +824,6 @@
       <c r="B12" t="n">
         <v>219</v>
       </c>
-      <c r="C12" t="n">
-        <v>-112.9568064971525</v>
-      </c>
-      <c r="D12" t="n">
-        <v>554.2418591196105</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -908,12 +832,6 @@
       <c r="B13" t="n">
         <v>248</v>
       </c>
-      <c r="C13" t="n">
-        <v>-57.07718015950802</v>
-      </c>
-      <c r="D13" t="n">
-        <v>592.8884285934466</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,12 +840,6 @@
       <c r="B14" t="n">
         <v>254</v>
       </c>
-      <c r="C14" t="n">
-        <v>-69.09606649411907</v>
-      </c>
-      <c r="D14" t="n">
-        <v>606.8410252654982</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,12 +848,6 @@
       <c r="B15" t="n">
         <v>260</v>
       </c>
-      <c r="C15" t="n">
-        <v>-49.06836385626646</v>
-      </c>
-      <c r="D15" t="n">
-        <v>615.2922163472905</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -950,12 +856,6 @@
       <c r="B16" t="n">
         <v>284</v>
       </c>
-      <c r="C16" t="n">
-        <v>-52.73867601724429</v>
-      </c>
-      <c r="D16" t="n">
-        <v>602.0149203809727</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -964,12 +864,6 @@
       <c r="B17" t="n">
         <v>289</v>
       </c>
-      <c r="C17" t="n">
-        <v>-63.50987958238752</v>
-      </c>
-      <c r="D17" t="n">
-        <v>614.892595547775</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -978,12 +872,6 @@
       <c r="B18" t="n">
         <v>301</v>
       </c>
-      <c r="C18" t="n">
-        <v>-26.85159084392301</v>
-      </c>
-      <c r="D18" t="n">
-        <v>616.1124434099165</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -992,12 +880,6 @@
       <c r="B19" t="n">
         <v>313</v>
       </c>
-      <c r="C19" t="n">
-        <v>-20.30473190515999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>667.403837429843</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1006,12 +888,6 @@
       <c r="B20" t="n">
         <v>325</v>
       </c>
-      <c r="C20" t="n">
-        <v>8.949547358030813</v>
-      </c>
-      <c r="D20" t="n">
-        <v>663.1671996149353</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1020,12 +896,6 @@
       <c r="B21" t="n">
         <v>331</v>
       </c>
-      <c r="C21" t="n">
-        <v>-9.853081831836755</v>
-      </c>
-      <c r="D21" t="n">
-        <v>675.5490765985616</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1034,12 +904,6 @@
       <c r="B22" t="n">
         <v>337</v>
       </c>
-      <c r="C22" t="n">
-        <v>-6.800000077947697</v>
-      </c>
-      <c r="D22" t="n">
-        <v>665.6988776245722</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1048,12 +912,6 @@
       <c r="B23" t="n">
         <v>343</v>
       </c>
-      <c r="C23" t="n">
-        <v>21.75552979021066</v>
-      </c>
-      <c r="D23" t="n">
-        <v>699.9887418448557</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1062,12 +920,6 @@
       <c r="B24" t="n">
         <v>349</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.409164462247696</v>
-      </c>
-      <c r="D24" t="n">
-        <v>659.6769184322196</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1076,12 +928,6 @@
       <c r="B25" t="n">
         <v>355</v>
       </c>
-      <c r="C25" t="n">
-        <v>27.6324397506751</v>
-      </c>
-      <c r="D25" t="n">
-        <v>683.045356730385</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1090,12 +936,6 @@
       <c r="B26" t="n">
         <v>360</v>
       </c>
-      <c r="C26" t="n">
-        <v>-6.461771780183521</v>
-      </c>
-      <c r="D26" t="n">
-        <v>695.7947591981757</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1104,12 +944,6 @@
       <c r="B27" t="n">
         <v>366</v>
       </c>
-      <c r="C27" t="n">
-        <v>27.07420583872602</v>
-      </c>
-      <c r="D27" t="n">
-        <v>708.4068854598256</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1117,12 +951,6 @@
       </c>
       <c r="B28" t="n">
         <v>372</v>
-      </c>
-      <c r="C28" t="n">
-        <v>44.16751989812407</v>
-      </c>
-      <c r="D28" t="n">
-        <v>701.5125556508866</v>
       </c>
     </row>
   </sheetData>
